--- a/src/assets/safe_contact_list.xlsx
+++ b/src/assets/safe_contact_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WCC SAFE\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BDA986-6A9E-4893-BB77-320706F1FC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4733AAA9-3C58-4897-9B41-F0CAD06DCE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,15 +42,6 @@
     <t>Area</t>
   </si>
   <si>
-    <t>Official</t>
-  </si>
-  <si>
-    <t>SAFE</t>
-  </si>
-  <si>
-    <t>Muntindilaw</t>
-  </si>
-  <si>
     <t>wcc.safe.muntindilaw@gmail.com</t>
   </si>
   <si>
@@ -58,6 +49,15 @@
   </si>
   <si>
     <t>Contact Number</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Resident</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -453,7 +453,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -481,22 +481,22 @@
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
-      <c r="E2" s="4">
-        <v>9766592681</v>
+      <c r="E2" s="3">
+        <v>9766592686</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
